--- a/biology/Zoologie/Ictérie_polyglotte/Ictérie_polyglotte.xlsx
+++ b/biology/Zoologie/Ictérie_polyglotte/Ictérie_polyglotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ict%C3%A9rie_polyglotte</t>
+          <t>Ictérie_polyglotte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Icteria virens
 L'Ictérie polyglotte (Icteria virens), anciennement Paruline polyglotte, est une espèce de passereaux dont la position systématique est encore indéterminée bien qu'elle ait longtemps été associée à la famille des Parulidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ict%C3%A9rie_polyglotte</t>
+          <t>Ictérie_polyglotte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymie
-Icteria virens, Carl von Linné, 1758
-Icteria longicauda
-Sous-espèces
-D'après la classification de référence (version 12.1 de 2022) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
-Icteria virens auricollis   (Deppe, 1830) ; sud-ouest du Canada et ouest des États-Unis ;
-Icteria virens virens   (Linnaeus, 1758) ; du sud-est du Canada et de l'est des États-Unis au nord-est du Mexique.</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Icteria virens, Carl von Linné, 1758
+Icteria longicauda</t>
         </is>
       </c>
     </row>
@@ -530,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ict%C3%A9rie_polyglotte</t>
+          <t>Ictérie_polyglotte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +558,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 12.1 de 2022) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
+Icteria virens auricollis   (Deppe, 1830) ; sud-ouest du Canada et ouest des États-Unis ;
+Icteria virens virens   (Linnaeus, 1758) ; du sud-est du Canada et de l'est des États-Unis au nord-est du Mexique.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -556,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ict%C3%A9rie_polyglotte</t>
+          <t>Ictérie_polyglotte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,10 +596,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Répartition et habitat</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -582,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ict%C3%A9rie_polyglotte</t>
+          <t>Ictérie_polyglotte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,10 +624,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -608,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ict%C3%A9rie_polyglotte</t>
+          <t>Ictérie_polyglotte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,15 +652,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et préservation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Statut et menaces
-Protection</t>
-        </is>
-      </c>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
